--- a/Banco Central/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
+++ b/Banco Central/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>Serie</t>
   </si>
@@ -662,6 +662,24 @@
   </si>
   <si>
     <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>31-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1037,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5678,6 +5696,144 @@
         <v>9329</v>
       </c>
     </row>
+    <row r="211" spans="1:7">
+      <c r="A211" t="s">
+        <v>216</v>
+      </c>
+      <c r="B211">
+        <v>2138</v>
+      </c>
+      <c r="C211">
+        <v>2826</v>
+      </c>
+      <c r="D211">
+        <v>15936</v>
+      </c>
+      <c r="E211">
+        <v>2782</v>
+      </c>
+      <c r="F211">
+        <v>4817</v>
+      </c>
+      <c r="G211">
+        <v>9253</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>217</v>
+      </c>
+      <c r="B212">
+        <v>2162</v>
+      </c>
+      <c r="C212">
+        <v>2859</v>
+      </c>
+      <c r="D212">
+        <v>16120</v>
+      </c>
+      <c r="E212">
+        <v>2814</v>
+      </c>
+      <c r="F212">
+        <v>4872</v>
+      </c>
+      <c r="G212">
+        <v>9360</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>218</v>
+      </c>
+      <c r="B213">
+        <v>2162</v>
+      </c>
+      <c r="C213">
+        <v>2859</v>
+      </c>
+      <c r="D213">
+        <v>16120</v>
+      </c>
+      <c r="E213">
+        <v>2814</v>
+      </c>
+      <c r="F213">
+        <v>4872</v>
+      </c>
+      <c r="G213">
+        <v>9360</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" t="s">
+        <v>219</v>
+      </c>
+      <c r="B214">
+        <v>2162</v>
+      </c>
+      <c r="C214">
+        <v>2859</v>
+      </c>
+      <c r="D214">
+        <v>16120</v>
+      </c>
+      <c r="E214">
+        <v>2814</v>
+      </c>
+      <c r="F214">
+        <v>4872</v>
+      </c>
+      <c r="G214">
+        <v>9360</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" t="s">
+        <v>220</v>
+      </c>
+      <c r="B215">
+        <v>2158</v>
+      </c>
+      <c r="C215">
+        <v>2852</v>
+      </c>
+      <c r="D215">
+        <v>16084</v>
+      </c>
+      <c r="E215">
+        <v>2808</v>
+      </c>
+      <c r="F215">
+        <v>4862</v>
+      </c>
+      <c r="G215">
+        <v>9340</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" t="s">
+        <v>221</v>
+      </c>
+      <c r="B216">
+        <v>2154</v>
+      </c>
+      <c r="C216">
+        <v>2848</v>
+      </c>
+      <c r="D216">
+        <v>16059</v>
+      </c>
+      <c r="E216">
+        <v>2803</v>
+      </c>
+      <c r="F216">
+        <v>4854</v>
+      </c>
+      <c r="G216">
+        <v>9325</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Banco Central/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
+++ b/Banco Central/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
   <si>
     <t>Serie</t>
   </si>
@@ -680,6 +680,9 @@
   </si>
   <si>
     <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1040,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G216"/>
+  <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5834,6 +5837,29 @@
         <v>9325</v>
       </c>
     </row>
+    <row r="217" spans="1:7">
+      <c r="A217" t="s">
+        <v>222</v>
+      </c>
+      <c r="B217">
+        <v>2118</v>
+      </c>
+      <c r="C217">
+        <v>2800</v>
+      </c>
+      <c r="D217">
+        <v>15787</v>
+      </c>
+      <c r="E217">
+        <v>2756</v>
+      </c>
+      <c r="F217">
+        <v>4772</v>
+      </c>
+      <c r="G217">
+        <v>9167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
